--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1918.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1918.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.501670222392743</v>
+        <v>1.255910158157349</v>
       </c>
       <c r="B1">
-        <v>3.120207150483605</v>
+        <v>1.388409018516541</v>
       </c>
       <c r="C1">
-        <v>2.072435760564151</v>
+        <v>2.308276653289795</v>
       </c>
       <c r="D1">
-        <v>1.808488691779966</v>
+        <v>3.950424671173096</v>
       </c>
       <c r="E1">
-        <v>1.74296394185103</v>
+        <v>1.199276804924011</v>
       </c>
     </row>
   </sheetData>
